--- a/data/Excel/Arena_Internet_Cafe_and_JiJieHao_stats.xlsx
+++ b/data/Excel/Arena_Internet_Cafe_and_JiJieHao_stats.xlsx
@@ -472,32 +472,32 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
+          <t>Bind</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
           <t>Breeze</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>Icebox</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>Lotus</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>Split</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>Sunset</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>Bind</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>Lotus</t>
         </is>
       </c>
     </row>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="K5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="O6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -803,10 +803,10 @@
         </is>
       </c>
       <c r="O7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="O8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -959,10 +959,10 @@
         </is>
       </c>
       <c r="O9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
@@ -1133,10 +1133,10 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="C14" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
